--- a/RarityRanking.xlsx
+++ b/RarityRanking.xlsx
@@ -399,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,9 +570,6 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +583,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,6 +606,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1301750" y="63500"/>
+          <a:ext cx="3517900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G103"/>
+  <dimension ref="C5:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S107" sqref="S107"/>
+      <selection activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,1725 +936,1726 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F7" s="12">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G7" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F8" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G8" s="15">
         <v>1428.5714285714287</v>
       </c>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F9" s="12">
         <v>9</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G9" s="9">
         <v>1111.1111111111111</v>
       </c>
     </row>
-    <row r="7" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F10" s="12">
         <v>9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G10" s="15">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9">
-        <v>714.28571428571433</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>714.28571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="13">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9">
-        <v>714.28571428571433</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10</v>
       </c>
       <c r="G11" s="9">
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="12" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>714.28571428571433</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>714.28571428571433</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9">
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
+      <c r="F14" s="12">
+        <v>2</v>
       </c>
       <c r="G14" s="9">
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>714.28571428571433</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C15" s="7">
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="13">
         <v>8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="E15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="16" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C16" s="7">
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15">
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="12">
+        <v>8</v>
+      </c>
+      <c r="G18" s="15">
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G19" s="15">
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="17" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="7">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="7">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="13">
-        <v>4</v>
-      </c>
-      <c r="G18" s="9">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="7">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="13">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
       </c>
       <c r="G20" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="13">
-        <v>5</v>
+      <c r="F21" s="12">
+        <v>4</v>
       </c>
       <c r="G21" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="7">
         <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="13">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6</v>
       </c>
       <c r="G23" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="24" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="7">
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="13">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="12">
+        <v>5</v>
       </c>
       <c r="G24" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="25" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="7">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="13">
+        <v>18</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="12">
         <v>1</v>
       </c>
       <c r="G25" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="26" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="7">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="13">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="12">
+        <v>9</v>
       </c>
       <c r="G26" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="7">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="13">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8</v>
       </c>
       <c r="G27" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="7">
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="13">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
       </c>
       <c r="G28" s="9">
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="12">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="G29" s="9">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="7">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3</v>
+      </c>
+      <c r="G30" s="9">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="13">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9">
-        <v>588.23529411764707</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="7">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>588.23529411764707</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="7">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="13">
-        <v>5</v>
+      <c r="F31" s="12">
+        <v>7</v>
       </c>
       <c r="G31" s="9">
-        <v>588.23529411764707</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="7">
         <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
+        <v>25</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="12">
+        <v>4</v>
+      </c>
+      <c r="G32" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="33" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="7">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="13">
-        <v>6</v>
-      </c>
-      <c r="G33" s="9">
+        <v>26</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="34" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="7">
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="13">
-        <v>9</v>
-      </c>
-      <c r="G34" s="9">
+        <v>27</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="12">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="35" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="7">
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="13">
-        <v>2</v>
-      </c>
-      <c r="G35" s="9">
+        <v>28</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="36" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="7">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="13">
-        <v>8</v>
-      </c>
-      <c r="G36" s="9">
+        <v>29</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="12">
+        <v>6</v>
+      </c>
+      <c r="G36" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="37" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="7">
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="13">
-        <v>7</v>
-      </c>
-      <c r="G37" s="9">
+        <v>30</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="12">
+        <v>9</v>
+      </c>
+      <c r="G37" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="38" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="7">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="13">
-        <v>9</v>
-      </c>
-      <c r="G38" s="9">
+        <v>31</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="12">
+        <v>2</v>
+      </c>
+      <c r="G38" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="39" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="7">
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="13">
-        <v>7</v>
-      </c>
-      <c r="G39" s="9">
+        <v>32</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="12">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="40" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="7">
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="13">
-        <v>3</v>
-      </c>
-      <c r="G40" s="9">
+        <v>33</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="12">
+        <v>7</v>
+      </c>
+      <c r="G40" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="41" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="7">
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="12">
+        <v>9</v>
+      </c>
+      <c r="G41" s="15">
+        <v>588.23529411764707</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="12">
+        <v>7</v>
+      </c>
+      <c r="G42" s="15">
+        <v>588.23529411764707</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="7">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="12">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15">
+        <v>588.23529411764707</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="7">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F44" s="12">
         <v>2</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G44" s="15">
         <v>588.23529411764707</v>
       </c>
     </row>
-    <row r="42" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="7">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="13">
-        <v>4</v>
-      </c>
-      <c r="G42" s="9">
-        <v>555.55555555555554</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="7">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="13">
-        <v>4</v>
-      </c>
-      <c r="G43" s="9">
-        <v>555.55555555555554</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="7">
-        <v>9</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="13">
-        <v>5</v>
-      </c>
-      <c r="G44" s="9">
-        <v>555.55555555555554</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="7">
         <v>9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="13">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="12">
+        <v>4</v>
       </c>
       <c r="G45" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="46" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="7">
         <v>9</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="13">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="12">
+        <v>4</v>
       </c>
       <c r="G46" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="47" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C47" s="7">
         <v>9</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="13">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="12">
+        <v>5</v>
       </c>
       <c r="G47" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="48" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C48" s="7">
         <v>9</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="13">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="12">
+        <v>5</v>
       </c>
       <c r="G48" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="7">
         <v>9</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="13">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="12">
+        <v>6</v>
       </c>
       <c r="G49" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C50" s="7">
         <v>9</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="13">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="12">
+        <v>6</v>
       </c>
       <c r="G50" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C51" s="7">
         <v>9</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="13">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="12">
+        <v>9</v>
       </c>
       <c r="G51" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C52" s="7">
         <v>9</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="13">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="12">
+        <v>9</v>
       </c>
       <c r="G52" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C53" s="7">
         <v>9</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="13">
-        <v>2</v>
+      <c r="F53" s="12">
+        <v>7</v>
       </c>
       <c r="G53" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="7">
         <v>9</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="13">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="12">
+        <v>2</v>
       </c>
       <c r="G54" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C55" s="7">
         <v>9</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="13">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="12">
+        <v>7</v>
       </c>
       <c r="G55" s="9">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C56" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="13">
-        <v>4</v>
+      <c r="F56" s="12">
+        <v>2</v>
       </c>
       <c r="G56" s="9">
-        <v>526.31578947368416</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>555.55555555555554</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C57" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="13">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="12">
+        <v>3</v>
       </c>
       <c r="G57" s="9">
-        <v>526.31578947368416</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>555.55555555555554</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C58" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="13">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="12">
+        <v>8</v>
       </c>
       <c r="G58" s="9">
-        <v>526.31578947368416</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>555.55555555555554</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C59" s="7">
         <v>10</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="13">
-        <v>5</v>
-      </c>
-      <c r="G59" s="9">
+        <v>52</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="12">
+        <v>4</v>
+      </c>
+      <c r="G59" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C60" s="7">
         <v>10</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="13">
-        <v>6</v>
-      </c>
-      <c r="G60" s="9">
+        <v>53</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="12">
+        <v>4</v>
+      </c>
+      <c r="G60" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C61" s="7">
         <v>10</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="13">
-        <v>6</v>
-      </c>
-      <c r="G61" s="9">
+        <v>54</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="12">
+        <v>5</v>
+      </c>
+      <c r="G61" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C62" s="7">
         <v>10</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="13">
-        <v>8</v>
-      </c>
-      <c r="G62" s="9">
+        <v>55</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="12">
+        <v>5</v>
+      </c>
+      <c r="G62" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C63" s="7">
         <v>10</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="13">
-        <v>8</v>
-      </c>
-      <c r="G63" s="9">
+        <v>56</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="12">
+        <v>6</v>
+      </c>
+      <c r="G63" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C64" s="7">
         <v>10</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="13">
-        <v>2</v>
-      </c>
-      <c r="G64" s="9">
+        <v>57</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="12">
+        <v>6</v>
+      </c>
+      <c r="G64" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="65" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C65" s="7">
         <v>10</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="13">
-        <v>3</v>
-      </c>
-      <c r="G65" s="9">
+        <v>58</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="12">
+        <v>8</v>
+      </c>
+      <c r="G65" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="66" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C66" s="7">
         <v>10</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="13">
-        <v>3</v>
-      </c>
-      <c r="G66" s="9">
+        <v>59</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="12">
+        <v>8</v>
+      </c>
+      <c r="G66" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="67" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C67" s="7">
         <v>10</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="12">
+        <v>2</v>
+      </c>
+      <c r="G67" s="15">
+        <v>526.31578947368416</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="12">
+        <v>3</v>
+      </c>
+      <c r="G68" s="15">
+        <v>526.31578947368416</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="12">
+        <v>3</v>
+      </c>
+      <c r="G69" s="15">
+        <v>526.31578947368416</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C70" s="7">
+        <v>10</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E70" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F70" s="12">
         <v>7</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G70" s="15">
         <v>526.31578947368416</v>
       </c>
     </row>
-    <row r="68" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="7">
-        <v>11</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="13">
-        <v>4</v>
-      </c>
-      <c r="G68" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="7">
-        <v>11</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="13">
-        <v>5</v>
-      </c>
-      <c r="G69" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="7">
-        <v>11</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="13">
-        <v>6</v>
-      </c>
-      <c r="G70" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C71" s="7">
         <v>11</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="13">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="12">
+        <v>4</v>
       </c>
       <c r="G71" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C72" s="7">
         <v>11</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="13">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="12">
+        <v>5</v>
       </c>
       <c r="G72" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C73" s="7">
         <v>11</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="13">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="12">
+        <v>6</v>
       </c>
       <c r="G73" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C74" s="7">
         <v>11</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="13">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="12">
+        <v>8</v>
       </c>
       <c r="G74" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C75" s="7">
         <v>11</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75" s="13">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="12">
+        <v>8</v>
       </c>
       <c r="G75" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C76" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="13">
-        <v>4</v>
+      <c r="F76" s="12">
+        <v>2</v>
       </c>
       <c r="G76" s="9">
-        <v>476.1904761904762</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C77" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="12">
+        <v>3</v>
+      </c>
+      <c r="G77" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C78" s="7">
+        <v>11</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="13">
-        <v>5</v>
-      </c>
-      <c r="G77" s="9">
-        <v>476.1904761904762</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="7">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F78" s="13">
-        <v>6</v>
+      <c r="F78" s="12">
+        <v>7</v>
       </c>
       <c r="G78" s="9">
-        <v>476.1904761904762</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C79" s="7">
         <v>12</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F79" s="13">
-        <v>7</v>
-      </c>
-      <c r="G79" s="9">
+        <v>72</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="12">
+        <v>4</v>
+      </c>
+      <c r="G79" s="15">
         <v>476.1904761904762</v>
       </c>
     </row>
-    <row r="80" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C80" s="7">
         <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F80" s="13">
-        <v>3</v>
-      </c>
-      <c r="G80" s="9">
+      <c r="F80" s="12">
+        <v>5</v>
+      </c>
+      <c r="G80" s="15">
         <v>476.1904761904762</v>
       </c>
     </row>
-    <row r="81" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C81" s="7">
         <v>12</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="13">
-        <v>2</v>
-      </c>
-      <c r="G81" s="9">
+        <v>74</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="12">
+        <v>6</v>
+      </c>
+      <c r="G81" s="15">
         <v>476.1904761904762</v>
       </c>
     </row>
-    <row r="82" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C82" s="7">
         <v>12</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" s="13">
+        <v>75</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="12">
         <v>7</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="15">
         <v>476.1904761904762</v>
       </c>
     </row>
-    <row r="83" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C83" s="7">
         <v>12</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="12">
+        <v>3</v>
+      </c>
+      <c r="G83" s="15">
+        <v>476.1904761904762</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C84" s="7">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F84" s="12">
+        <v>2</v>
+      </c>
+      <c r="G84" s="15">
+        <v>476.1904761904762</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C85" s="7">
+        <v>12</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="12">
+        <v>7</v>
+      </c>
+      <c r="G85" s="15">
+        <v>476.1904761904762</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C86" s="7">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F86" s="12">
         <v>2</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G86" s="15">
         <v>476.1904761904762</v>
       </c>
     </row>
-    <row r="84" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="7">
-        <v>13</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F84" s="13">
-        <v>4</v>
-      </c>
-      <c r="G84" s="9">
-        <v>454.54545454545456</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="7">
-        <v>13</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F85" s="13">
-        <v>4</v>
-      </c>
-      <c r="G85" s="9">
-        <v>454.54545454545456</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="7">
-        <v>13</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F86" s="13">
-        <v>5</v>
-      </c>
-      <c r="G86" s="9">
-        <v>454.54545454545456</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C87" s="7">
         <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F87" s="13">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="12">
+        <v>4</v>
       </c>
       <c r="G87" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="88" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C88" s="7">
         <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F88" s="13">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="12">
+        <v>4</v>
       </c>
       <c r="G88" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="89" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C89" s="7">
         <v>13</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F89" s="13">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="12">
+        <v>5</v>
       </c>
       <c r="G89" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="90" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C90" s="7">
         <v>13</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="13">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F90" s="12">
+        <v>5</v>
       </c>
       <c r="G90" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="91" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C91" s="7">
         <v>13</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="13">
+        <v>84</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="12">
         <v>6</v>
       </c>
       <c r="G91" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="92" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C92" s="7">
         <v>13</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F92" s="13">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2</v>
       </c>
       <c r="G92" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="93" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C93" s="7">
         <v>13</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F93" s="13">
-        <v>7</v>
+      <c r="F93" s="12">
+        <v>2</v>
       </c>
       <c r="G93" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="94" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C94" s="7">
         <v>13</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F94" s="13">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="12">
+        <v>6</v>
       </c>
       <c r="G94" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="95" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C95" s="7">
         <v>13</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F95" s="13">
+        <v>88</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="12">
         <v>3</v>
       </c>
       <c r="G95" s="9">
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="96" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C96" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="12">
+        <v>7</v>
+      </c>
+      <c r="G96" s="9">
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C97" s="7">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="12">
+        <v>7</v>
+      </c>
+      <c r="G97" s="9">
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C98" s="7">
+        <v>13</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" s="12">
         <v>3</v>
       </c>
-      <c r="G96" s="9">
-        <v>434.78260869565219</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="7">
-        <v>14</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F97" s="13">
-        <v>4</v>
-      </c>
-      <c r="G97" s="9">
-        <v>434.78260869565219</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="7">
-        <v>14</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="13">
-        <v>5</v>
-      </c>
       <c r="G98" s="9">
-        <v>434.78260869565219</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C99" s="7">
         <v>14</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F99" s="13">
-        <v>6</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="F99" s="12">
+        <v>3</v>
+      </c>
+      <c r="G99" s="15">
         <v>434.78260869565219</v>
       </c>
     </row>
-    <row r="100" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C100" s="7">
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="13">
-        <v>3</v>
-      </c>
-      <c r="G100" s="9">
+        <v>93</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" s="12">
+        <v>4</v>
+      </c>
+      <c r="G100" s="15">
         <v>434.78260869565219</v>
       </c>
     </row>
-    <row r="101" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C101" s="7">
         <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="13">
-        <v>4</v>
-      </c>
-      <c r="G101" s="9">
+        <v>94</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" s="12">
+        <v>5</v>
+      </c>
+      <c r="G101" s="15">
         <v>434.78260869565219</v>
       </c>
     </row>
-    <row r="102" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C102" s="7">
         <v>14</v>
       </c>
       <c r="D102" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="12">
+        <v>6</v>
+      </c>
+      <c r="G102" s="15">
+        <v>434.78260869565219</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C103" s="7">
+        <v>14</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="12">
+        <v>3</v>
+      </c>
+      <c r="G103" s="15">
+        <v>434.78260869565219</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C104" s="7">
+        <v>14</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="12">
+        <v>4</v>
+      </c>
+      <c r="G104" s="15">
+        <v>434.78260869565219</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C105" s="7">
+        <v>14</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F105" s="12">
         <v>5</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G105" s="15">
         <v>434.78260869565219</v>
       </c>
     </row>
-    <row r="103" spans="3:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C103" s="8">
+    <row r="106" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C106" s="8">
         <v>14</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E106" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F106" s="14">
         <v>6</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G106" s="16">
         <v>434.78260869565219</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>